--- a/EL_Electrical/Dashboard controller/Suivi_Dashboard Controller.xlsx
+++ b/EL_Electrical/Dashboard controller/Suivi_Dashboard Controller.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0297859F-BD0C-4126-9984-7C016C7C63E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3A6B2-6761-4D9C-975D-5D2416A55DAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="4785" windowWidth="21600" windowHeight="11385" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Généralités" sheetId="8" r:id="rId1"/>
@@ -14,12 +14,20 @@
     <sheet name="Composants" sheetId="11" r:id="rId4"/>
     <sheet name="Docs utile" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <r>
       <t>Identification de la carte :</t>
@@ -87,9 +95,6 @@
     <t>Etat d'avancement :</t>
   </si>
   <si>
-    <t>Entrées - Sortie de GearBox Controller :</t>
-  </si>
-  <si>
     <t>Nom du signal</t>
   </si>
   <si>
@@ -142,13 +147,61 @@
   </si>
   <si>
     <t>L'objectif est de la placer juste derrière le tableau de bord.</t>
+  </si>
+  <si>
+    <t>CAN0</t>
+  </si>
+  <si>
+    <t>Entrées - Sortie de Dashboard Controller :</t>
+  </si>
+  <si>
+    <t>CAN0_INT</t>
+  </si>
+  <si>
+    <t>shield can</t>
+  </si>
+  <si>
+    <t>carte arrière</t>
+  </si>
+  <si>
+    <t>LC_LED_PIN</t>
+  </si>
+  <si>
+    <t>LC_SWITCH_PIN</t>
+  </si>
+  <si>
+    <t>led launch control</t>
+  </si>
+  <si>
+    <t>switch launch control</t>
+  </si>
+  <si>
+    <t>shift light</t>
+  </si>
+  <si>
+    <t>SL_PIN</t>
+  </si>
+  <si>
+    <t>H_PIN</t>
+  </si>
+  <si>
+    <t>N_PIN</t>
+  </si>
+  <si>
+    <t>SC_PIN</t>
+  </si>
+  <si>
+    <t>Serial TTL, écran</t>
+  </si>
+  <si>
+    <t>Serial TTL,écran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,7 +344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -470,12 +523,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -584,6 +663,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -596,15 +682,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -612,30 +700,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -654,30 +757,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,6 +765,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1620,80 +1705,80 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="B5" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:H11"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A40" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="15"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:8" ht="21">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="52" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="53"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="14"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1702,176 +1787,160 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="53"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
+      <c r="A20" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="A27" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="51"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="48"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="52" t="s">
+      <c r="B33" s="51"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="F34" s="54" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="F34" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="54" t="s">
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="F35" s="54" t="s">
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="F35" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="54" t="s">
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="F36" s="54" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="F36" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="54" t="s">
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="F37" s="54" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="F37" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
@@ -1888,6 +1957,22 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:H28"/>
     <mergeCell ref="C16:H16"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1911,7 +1996,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="5" customWidth="1"/>
@@ -1927,18 +2012,18 @@
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+    <row r="2" spans="1:16" ht="15.6" customHeight="1">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
       <c r="F2" s="17"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+    <row r="3" spans="1:16" ht="15.75">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="19"/>
@@ -1950,10 +2035,10 @@
       <c r="N3" s="25"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+    <row r="4" spans="1:16" ht="15.6" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
       <c r="F4" s="17"/>
@@ -1963,9 +2048,9 @@
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
+    <row r="5" spans="1:16" ht="15.6" customHeight="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
@@ -1976,296 +2061,291 @@
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+    <row r="6" spans="1:16">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="H6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
       <c r="N6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+    <row r="7" spans="1:16">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="H7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+    <row r="8" spans="1:16">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="H8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+    <row r="9" spans="1:16" ht="81.75" customHeight="1">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="B10" s="6"/>
       <c r="E10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="6"/>
       <c r="E11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
+    <row r="12" spans="1:16" ht="15.75">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
       <c r="E12" s="6"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="B13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+    <row r="14" spans="1:16" ht="15" customHeight="1">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-    </row>
-    <row r="18" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+    </row>
+    <row r="18" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+    <row r="20" spans="1:8" ht="15.75">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="B33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="20"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="B35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="B41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="B42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="B43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="B44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="B45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="B46" s="6"/>
       <c r="E46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:F9"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A30:F32"/>
     <mergeCell ref="A36:F40"/>
@@ -2273,6 +2353,11 @@
     <mergeCell ref="A14:F18"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A22:F27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:F9"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.38825757575757575" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2291,11 +2376,11 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="90" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScale="90" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="8" customWidth="1"/>
@@ -2307,170 +2392,170 @@
     <col min="9" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+    <row r="1" spans="1:14" ht="18.399999999999999" customHeight="1">
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="B3" s="9"/>
       <c r="C3" s="7"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1">
+      <c r="A4" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="45" t="s">
+      <c r="D4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="E4" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="30"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="23"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
+    <row r="8" spans="1:14">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="23"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="26"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+    <row r="10" spans="1:14" ht="18.399999999999999" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="23"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
+    <row r="11" spans="1:14" ht="18.399999999999999" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="23"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
+    <row r="12" spans="1:14" ht="29.25" customHeight="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="26"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
+    <row r="13" spans="1:14">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="26"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
+    <row r="15" spans="1:14" ht="18.399999999999999" customHeight="1">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="26"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
+    <row r="16" spans="1:14">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="23"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
+    <row r="17" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="23"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
+    <row r="18" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="23"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -2478,9 +2563,9 @@
       <c r="G18" s="29"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="23"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -2488,9 +2573,9 @@
       <c r="G19" s="29"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
+    <row r="20" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="23"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -2498,9 +2583,9 @@
       <c r="G20" s="29"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
+    <row r="21" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="23"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -2508,9 +2593,9 @@
       <c r="G21" s="29"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="23"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2518,140 +2603,176 @@
       <c r="G22" s="29"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="9"/>
       <c r="E23" s="9"/>
       <c r="H23" s="28"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="E24" s="9"/>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18.399999999999999" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="E25" s="9"/>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+    <row r="26" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A26" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="33"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18.399999999999999" customHeight="1" thickBot="1">
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="75" t="s">
+    <row r="28" spans="1:8" ht="18.399999999999999" customHeight="1" thickBot="1">
+      <c r="A28" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="78"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="65"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="84"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+    <row r="30" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A30" s="61" t="s">
+        <v>38</v>
+      </c>
       <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="C30" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="84"/>
       <c r="E30" s="61"/>
       <c r="F30" s="61"/>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+    <row r="31" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A31" s="61" t="s">
+        <v>47</v>
+      </c>
       <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
+      <c r="C31" s="61" t="s">
+        <v>40</v>
+      </c>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
+    <row r="32" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A32" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="67"/>
+      <c r="C32" s="61" t="s">
+        <v>40</v>
+      </c>
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+    <row r="33" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A33" s="61" t="s">
+        <v>41</v>
+      </c>
       <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
+      <c r="C33" s="61" t="s">
+        <v>43</v>
+      </c>
       <c r="D33" s="61"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61"/>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+    <row r="34" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A34" s="61" t="s">
+        <v>42</v>
+      </c>
       <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
+      <c r="C34" s="61" t="s">
+        <v>44</v>
+      </c>
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="61"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+    <row r="35" spans="1:8" ht="18.399999999999999" customHeight="1">
+      <c r="A35" s="61" t="s">
+        <v>46</v>
+      </c>
       <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
+      <c r="C35" s="61" t="s">
+        <v>45</v>
+      </c>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
       <c r="F35" s="61"/>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="61"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="70"/>
+      <c r="C36" s="61" t="s">
+        <v>50</v>
+      </c>
       <c r="D36" s="61"/>
       <c r="E36" s="61"/>
       <c r="F36" s="61"/>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="61"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="70"/>
+      <c r="C37" s="61" t="s">
+        <v>51</v>
+      </c>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
       <c r="F37" s="61"/>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="61"/>
       <c r="B39" s="61"/>
       <c r="C39" s="61"/>
@@ -2660,7 +2781,7 @@
       <c r="F39" s="61"/>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="61"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
@@ -2669,7 +2790,7 @@
       <c r="F40" s="61"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="61"/>
       <c r="B41" s="61"/>
       <c r="C41" s="61"/>
@@ -2678,49 +2799,98 @@
       <c r="F41" s="61"/>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="9"/>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1"/>
+    <row r="46" spans="1:8" ht="18.95" customHeight="1">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="9"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15" customHeight="1"/>
+    <row r="50" spans="1:3">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="B51" s="9"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="B52" s="9"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="B53" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="A26:C26"/>
@@ -2737,55 +2907,6 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2809,14 +2930,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2826,45 +2947,45 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="32.25" thickBot="1">
       <c r="A6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="D6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="E6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="F6" s="42" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>32</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -2874,7 +2995,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -2884,7 +3005,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -2894,7 +3015,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -2904,7 +3025,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -2914,7 +3035,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -2924,7 +3045,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -2934,7 +3055,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -2944,7 +3065,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -2954,7 +3075,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -2964,7 +3085,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -2974,7 +3095,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -2984,7 +3105,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2994,7 +3115,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -3004,7 +3125,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -3014,7 +3135,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -3024,7 +3145,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -3034,7 +3155,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -3044,7 +3165,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -3054,7 +3175,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -3064,7 +3185,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -3074,7 +3195,7 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -3084,7 +3205,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -3094,7 +3215,7 @@
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -3104,7 +3225,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -3114,7 +3235,7 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -3124,7 +3245,7 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -3134,7 +3255,7 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -3144,7 +3265,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -3154,7 +3275,7 @@
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -3164,7 +3285,7 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -3174,7 +3295,7 @@
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -3184,7 +3305,7 @@
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -3194,7 +3315,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -3204,7 +3325,7 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -3214,7 +3335,7 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -3224,7 +3345,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -3234,7 +3355,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -3244,7 +3365,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -3254,7 +3375,7 @@
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3264,7 +3385,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -3274,7 +3395,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -3335,18 +3456,18 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScale="110" zoomScaleNormal="115" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:G41"/>
+      <selection activeCell="A28" sqref="A28:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="81"/>
       <c r="B3" s="81"/>
       <c r="C3" s="81"/>
@@ -3355,7 +3476,7 @@
       <c r="F3" s="81"/>
       <c r="G3" s="81"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="80"/>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
@@ -3364,7 +3485,7 @@
       <c r="F4" s="80"/>
       <c r="G4" s="80"/>
     </row>
-    <row r="5" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.7" customHeight="1">
       <c r="A5" s="81"/>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
@@ -3373,7 +3494,7 @@
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
@@ -3382,7 +3503,7 @@
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="81"/>
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
@@ -3391,7 +3512,7 @@
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.45" customHeight="1">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
@@ -3400,7 +3521,7 @@
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
     </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.45" customHeight="1">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
@@ -3409,7 +3530,7 @@
       <c r="F9" s="80"/>
       <c r="G9" s="80"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.45" customHeight="1">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
@@ -3418,7 +3539,7 @@
       <c r="F10" s="80"/>
       <c r="G10" s="80"/>
     </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.45" customHeight="1">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -3427,7 +3548,7 @@
       <c r="F11" s="80"/>
       <c r="G11" s="80"/>
     </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.45" customHeight="1">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -3436,7 +3557,7 @@
       <c r="F12" s="80"/>
       <c r="G12" s="80"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -3445,7 +3566,7 @@
       <c r="F13" s="80"/>
       <c r="G13" s="80"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -3454,7 +3575,7 @@
       <c r="F14" s="80"/>
       <c r="G14" s="80"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -3463,7 +3584,7 @@
       <c r="F15" s="80"/>
       <c r="G15" s="80"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="80"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
@@ -3472,7 +3593,7 @@
       <c r="F16" s="80"/>
       <c r="G16" s="80"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="80"/>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
@@ -3481,7 +3602,7 @@
       <c r="F17" s="80"/>
       <c r="G17" s="80"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="80"/>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
@@ -3490,7 +3611,7 @@
       <c r="F18" s="80"/>
       <c r="G18" s="80"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="80"/>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
@@ -3499,7 +3620,7 @@
       <c r="F19" s="80"/>
       <c r="G19" s="80"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="80"/>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
@@ -3508,7 +3629,7 @@
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="80"/>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
@@ -3517,7 +3638,7 @@
       <c r="F21" s="80"/>
       <c r="G21" s="80"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="80"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
@@ -3526,7 +3647,7 @@
       <c r="F22" s="80"/>
       <c r="G22" s="80"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="80"/>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -3535,7 +3656,7 @@
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="80"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -3544,7 +3665,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="80"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -3553,7 +3674,7 @@
       <c r="F25" s="80"/>
       <c r="G25" s="80"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="80"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
@@ -3562,7 +3683,7 @@
       <c r="F26" s="80"/>
       <c r="G26" s="80"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="80"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -3571,7 +3692,7 @@
       <c r="F27" s="80"/>
       <c r="G27" s="80"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="80"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -3580,7 +3701,7 @@
       <c r="F28" s="80"/>
       <c r="G28" s="80"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="80"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
@@ -3589,7 +3710,7 @@
       <c r="F29" s="80"/>
       <c r="G29" s="80"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="80"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
@@ -3598,7 +3719,7 @@
       <c r="F30" s="80"/>
       <c r="G30" s="80"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="80"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -3607,7 +3728,7 @@
       <c r="F31" s="80"/>
       <c r="G31" s="80"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="80"/>
       <c r="B32" s="80"/>
       <c r="C32" s="80"/>
@@ -3616,7 +3737,7 @@
       <c r="F32" s="80"/>
       <c r="G32" s="80"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="80"/>
       <c r="B33" s="80"/>
       <c r="C33" s="80"/>
@@ -3625,7 +3746,7 @@
       <c r="F33" s="80"/>
       <c r="G33" s="80"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="80"/>
       <c r="B34" s="80"/>
       <c r="C34" s="80"/>
@@ -3634,7 +3755,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="80"/>
       <c r="B35" s="80"/>
       <c r="C35" s="80"/>
@@ -3643,7 +3764,7 @@
       <c r="F35" s="80"/>
       <c r="G35" s="80"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="80"/>
       <c r="B36" s="80"/>
       <c r="C36" s="80"/>
@@ -3652,7 +3773,7 @@
       <c r="F36" s="80"/>
       <c r="G36" s="80"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="80"/>
       <c r="B37" s="80"/>
       <c r="C37" s="80"/>
@@ -3661,7 +3782,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="80"/>
       <c r="B38" s="80"/>
       <c r="C38" s="80"/>
@@ -3670,7 +3791,7 @@
       <c r="F38" s="80"/>
       <c r="G38" s="80"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="80"/>
       <c r="B39" s="80"/>
       <c r="C39" s="80"/>
@@ -3679,7 +3800,7 @@
       <c r="F39" s="80"/>
       <c r="G39" s="80"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="80"/>
       <c r="B40" s="80"/>
       <c r="C40" s="80"/>
@@ -3688,7 +3809,7 @@
       <c r="F40" s="80"/>
       <c r="G40" s="80"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="80"/>
       <c r="B41" s="80"/>
       <c r="C41" s="80"/>
@@ -3697,7 +3818,7 @@
       <c r="F41" s="80"/>
       <c r="G41" s="80"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="80"/>
       <c r="B42" s="80"/>
       <c r="C42" s="80"/>
@@ -3706,7 +3827,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="80"/>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -3715,7 +3836,7 @@
       <c r="F43" s="80"/>
       <c r="G43" s="80"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="80"/>
       <c r="B44" s="80"/>
       <c r="C44" s="80"/>
@@ -3724,7 +3845,7 @@
       <c r="F44" s="80"/>
       <c r="G44" s="80"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="80"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
@@ -3733,7 +3854,7 @@
       <c r="F45" s="80"/>
       <c r="G45" s="80"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="80"/>
       <c r="B46" s="80"/>
       <c r="C46" s="80"/>
@@ -3742,7 +3863,7 @@
       <c r="F46" s="80"/>
       <c r="G46" s="80"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="80"/>
       <c r="B47" s="80"/>
       <c r="C47" s="80"/>
@@ -3751,7 +3872,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="80"/>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
@@ -3762,36 +3883,34 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A48:B48"/>
@@ -3808,34 +3927,36 @@
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
